--- a/문서모음/cmmn_cd_공통코드data(0806)_관리자Role수정본.xlsx
+++ b/문서모음/cmmn_cd_공통코드data(0806)_관리자Role수정본.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\1조 팀프로젝트\git\TeamProject\문서모음\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1조 팀프로젝트\github\TeamProject\문서모음\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CEA5DA2-1618-41BD-8A12-A1C7B6F4A8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="공통코드" sheetId="4" r:id="rId1"/>
@@ -616,7 +615,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1066,11 +1065,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2493,11 +2492,11 @@
       <c r="B70" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>146</v>
@@ -2514,11 +2513,11 @@
       <c r="B71" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>146</v>
@@ -2535,11 +2534,11 @@
       <c r="B72" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>146</v>
@@ -2592,7 +2591,7 @@
       <c r="G74" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D45:D61">
+  <sortState ref="D45:D61">
     <sortCondition ref="D45"/>
   </sortState>
   <mergeCells count="2">
